--- a/resources/objects/stimuli/stimuli.xlsx
+++ b/resources/objects/stimuli/stimuli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\OneDrive\Desktop\CNC\Paradigmas\Python\Rutvik\picture-naming\resources\objects\stimuli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\OneDrive\Desktop\CNC\Paradigmas\Python\Rutvik\rutvik-picture-naming\resources\objects\stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B9B112-3886-472F-88E3-13DA8D479D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C59372-EAFB-46F8-B4C9-991C3D8E566A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{C37A7FB8-9F08-4596-813A-61242B3CD22C}"/>
+    <workbookView xWindow="1128" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{C37A7FB8-9F08-4596-813A-61242B3CD22C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="100">
-  <si>
-    <t>task</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
   <si>
     <t>condition</t>
   </si>
@@ -53,15 +50,6 @@
     <t>file</t>
   </si>
   <si>
-    <t>picture naming</t>
-  </si>
-  <si>
-    <t>acorn</t>
-  </si>
-  <si>
-    <t>bellota</t>
-  </si>
-  <si>
     <t>low_typicality</t>
   </si>
   <si>
@@ -95,12 +83,6 @@
     <t>bota</t>
   </si>
   <si>
-    <t>caravan</t>
-  </si>
-  <si>
-    <t>caravana</t>
-  </si>
-  <si>
     <t>carrot</t>
   </si>
   <si>
@@ -233,12 +215,6 @@
     <t>tren</t>
   </si>
   <si>
-    <t>van</t>
-  </si>
-  <si>
-    <t>furgoneta</t>
-  </si>
-  <si>
     <t>waistcoat</t>
   </si>
   <si>
@@ -248,9 +224,6 @@
     <t>Word</t>
   </si>
   <si>
-    <t>resources/pictures/acorn.jpg</t>
-  </si>
-  <si>
     <t>resources/pictures/apple.jpg</t>
   </si>
   <si>
@@ -263,9 +236,6 @@
     <t>resources/pictures/boot.jpg</t>
   </si>
   <si>
-    <t>resources/pictures/caravan.jpg</t>
-  </si>
-  <si>
     <t>resources/pictures/carrot.jpg</t>
   </si>
   <si>
@@ -332,17 +302,41 @@
     <t>resources/pictures/train.jpg</t>
   </si>
   <si>
-    <t>resources/pictures/van.jpg</t>
-  </si>
-  <si>
     <t>resources/pictures/waistcoat.jpg</t>
+  </si>
+  <si>
+    <t>snake</t>
+  </si>
+  <si>
+    <t>serpiente</t>
+  </si>
+  <si>
+    <t>resources/pictures/snake.jpg</t>
+  </si>
+  <si>
+    <t>whale</t>
+  </si>
+  <si>
+    <t>ballena</t>
+  </si>
+  <si>
+    <t>resources/pictures/whale.jpg</t>
+  </si>
+  <si>
+    <t>guitar</t>
+  </si>
+  <si>
+    <t>guitarra</t>
+  </si>
+  <si>
+    <t>resources/pictures/guitar.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +348,18 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -393,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -401,6 +407,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,552 +747,545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4364C209-0A91-4EC2-9F7A-D0E718417FCF}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="3"/>
-    <col min="6" max="6" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="3"/>
+    <col min="4" max="4" width="11.5546875" style="3"/>
+    <col min="5" max="5" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
